--- a/Result.xlsx
+++ b/Result.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hopper" sheetId="1" r:id="rId1"/>
+    <sheet name="Laptop" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Blas</t>
   </si>
@@ -29,15 +31,80 @@
   <si>
     <t>SIMD</t>
   </si>
+  <si>
+    <t>Pure-SIMD</t>
+  </si>
+  <si>
+    <t>BlockSize2</t>
+  </si>
+  <si>
+    <t>BlockSize64</t>
+  </si>
+  <si>
+    <t>BlockSize16</t>
+  </si>
+  <si>
+    <t>BestBlockSize</t>
+  </si>
+  <si>
+    <t>BlockSize4</t>
+  </si>
+  <si>
+    <t>BlockSize8</t>
+  </si>
+  <si>
+    <t>BlockSize32</t>
+  </si>
+  <si>
+    <t>CheatingBlockSize2</t>
+  </si>
+  <si>
+    <t>CheatingBlockSize4</t>
+  </si>
+  <si>
+    <t>CheatingBlockSize8</t>
+  </si>
+  <si>
+    <t>CheatingBlockSize16</t>
+  </si>
+  <si>
+    <t>CheatingBlockSize32</t>
+  </si>
+  <si>
+    <t>CheatingBlockSize64</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,13 +127,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -88,6 +188,51 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Max Speed % vs. Matrix Size on Hopper</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -99,7 +244,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Hopper!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -113,7 +258,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Hopper!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -200,7 +345,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Hopper!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -292,7 +437,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Hopper!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -306,7 +451,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Hopper!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -393,7 +538,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$27</c:f>
+              <c:f>Hopper!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -485,7 +630,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Hopper!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -499,7 +644,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Hopper!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -586,7 +731,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$27</c:f>
+              <c:f>Hopper!$D$2:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -667,6 +812,392 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>16.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hopper!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BlockSize2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hopper!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>319.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>417.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>479.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>511.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>639.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>767.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>769.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hopper!$E$2:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hopper!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BlockSize64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hopper!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>319.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>417.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>479.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>511.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>639.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>767.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>769.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hopper!$F$2:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.56</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,11 +1214,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2108592104"/>
-        <c:axId val="2108563912"/>
+        <c:axId val="2139699416"/>
+        <c:axId val="2111189464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2108592104"/>
+        <c:axId val="2139699416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,7 +1238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108563912"/>
+        <c:crossAx val="2111189464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -715,7 +1246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108563912"/>
+        <c:axId val="2111189464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +1267,1377 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108592104"/>
+        <c:crossAx val="2139699416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Max Speed % vs. Matrix Size on Macbook Air mid-13</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Laptop!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Laptop!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>319.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>417.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>479.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>511.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>639.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>767.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>769.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Laptop!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>21.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.97</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Laptop!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Laptop!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>319.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>417.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>479.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>511.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>639.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>767.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>769.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Laptop!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>40.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.97</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38.76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Laptop!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BlockSize2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Laptop!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>319.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>417.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>479.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>511.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>639.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>767.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>769.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Laptop!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.51</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Laptop!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BlockSize64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Laptop!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>319.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>417.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>479.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>511.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>639.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>767.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>769.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Laptop!$E$2:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.09</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.52</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2111684552"/>
+        <c:axId val="2139877368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2111684552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2139877368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2139877368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2111684552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Laptop!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CheatingBlockSize2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Laptop!$A$38:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Laptop!$B$38:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Laptop!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CheatingBlockSize64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Laptop!$A$38:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Laptop!$C$38:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Laptop!$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BlockSize2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Laptop!$A$38:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Laptop!$D$38:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.630000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Laptop!$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BlockSize64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Laptop!$A$38:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Laptop!$E$38:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2113421144"/>
+        <c:axId val="2141050680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2113421144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2141050680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2141050680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2113421144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -772,20 +2673,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -795,6 +2696,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1125,15 +3091,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1143,8 +3109,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>31</v>
       </c>
@@ -1157,8 +3129,14 @@
       <c r="D2">
         <v>18.34</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>2.29</v>
+      </c>
+      <c r="F2">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>32</v>
       </c>
@@ -1171,8 +3149,14 @@
       <c r="D3">
         <v>21.57</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>96</v>
       </c>
@@ -1185,8 +3169,14 @@
       <c r="D4">
         <v>21.02</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>3.35</v>
+      </c>
+      <c r="F4">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>97</v>
       </c>
@@ -1199,8 +3189,14 @@
       <c r="D5">
         <v>18.48</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>3.29</v>
+      </c>
+      <c r="F5">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>127</v>
       </c>
@@ -1213,8 +3209,14 @@
       <c r="D6">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>4.08</v>
+      </c>
+      <c r="F6">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>128</v>
       </c>
@@ -1227,8 +3229,14 @@
       <c r="D7">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>3.88</v>
+      </c>
+      <c r="F7">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>129</v>
       </c>
@@ -1241,8 +3249,14 @@
       <c r="D8">
         <v>19.239999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>3.7</v>
+      </c>
+      <c r="F8">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>191</v>
       </c>
@@ -1255,8 +3269,14 @@
       <c r="D9">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>5.21</v>
+      </c>
+      <c r="F9">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>192</v>
       </c>
@@ -1269,8 +3289,14 @@
       <c r="D10">
         <v>20.350000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>5.14</v>
+      </c>
+      <c r="F10">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>229</v>
       </c>
@@ -1283,8 +3309,14 @@
       <c r="D11">
         <v>17.61</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>5.5</v>
+      </c>
+      <c r="F11">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>255</v>
       </c>
@@ -1297,8 +3329,14 @@
       <c r="D12">
         <v>18.350000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>5.58</v>
+      </c>
+      <c r="F12">
+        <v>14.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>256</v>
       </c>
@@ -1311,8 +3349,14 @@
       <c r="D13">
         <v>18.27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>5.6</v>
+      </c>
+      <c r="F13">
+        <v>13.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>257</v>
       </c>
@@ -1325,8 +3369,14 @@
       <c r="D14">
         <v>18.920000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>5.63</v>
+      </c>
+      <c r="F14">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>319</v>
       </c>
@@ -1339,8 +3389,14 @@
       <c r="D15">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>5.76</v>
+      </c>
+      <c r="F15">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>320</v>
       </c>
@@ -1353,8 +3409,14 @@
       <c r="D16">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>5.82</v>
+      </c>
+      <c r="F16">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>321</v>
       </c>
@@ -1367,8 +3429,14 @@
       <c r="D17">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>5.77</v>
+      </c>
+      <c r="F17">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>417</v>
       </c>
@@ -1381,8 +3449,14 @@
       <c r="D18">
         <v>18.239999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>5.9</v>
+      </c>
+      <c r="F18">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>479</v>
       </c>
@@ -1395,8 +3469,14 @@
       <c r="D19">
         <v>16.829999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>5.97</v>
+      </c>
+      <c r="F19">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>480</v>
       </c>
@@ -1409,8 +3489,14 @@
       <c r="D20">
         <v>18.93</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>14.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>511</v>
       </c>
@@ -1423,8 +3509,14 @@
       <c r="D21">
         <v>16.13</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>5.96</v>
+      </c>
+      <c r="F21">
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>512</v>
       </c>
@@ -1437,8 +3529,14 @@
       <c r="D22">
         <v>14.89</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>5.92</v>
+      </c>
+      <c r="F22">
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>639</v>
       </c>
@@ -1451,8 +3549,14 @@
       <c r="D23">
         <v>15.07</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>6.11</v>
+      </c>
+      <c r="F23">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>640</v>
       </c>
@@ -1465,8 +3569,14 @@
       <c r="D24">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>6.07</v>
+      </c>
+      <c r="F24">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>767</v>
       </c>
@@ -1479,8 +3589,14 @@
       <c r="D25">
         <v>12.24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>6.18</v>
+      </c>
+      <c r="F25">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>768</v>
       </c>
@@ -1493,8 +3609,14 @@
       <c r="D26">
         <v>16.14</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>6.12</v>
+      </c>
+      <c r="F26">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>769</v>
       </c>
@@ -1507,9 +3629,16 @@
       <c r="D27">
         <v>16.59</v>
       </c>
+      <c r="E27">
+        <v>6.13</v>
+      </c>
+      <c r="F27">
+        <v>15.97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1517,4 +3646,1913 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="17" max="17" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>21.82</v>
+      </c>
+      <c r="C2">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="E2">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>24.13</v>
+      </c>
+      <c r="C3">
+        <v>48.12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E3">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>96</v>
+      </c>
+      <c r="B4">
+        <v>18.66</v>
+      </c>
+      <c r="C4">
+        <v>47.83</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="E4">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>18.93</v>
+      </c>
+      <c r="C5">
+        <v>45.92</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.21</v>
+      </c>
+      <c r="E5">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>127</v>
+      </c>
+      <c r="B6">
+        <v>18.5</v>
+      </c>
+      <c r="C6">
+        <v>45.23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.91</v>
+      </c>
+      <c r="E6">
+        <v>18.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>17.16</v>
+      </c>
+      <c r="C7">
+        <v>49.28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E7">
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>129</v>
+      </c>
+      <c r="B8">
+        <v>21.62</v>
+      </c>
+      <c r="C8">
+        <v>41.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.98</v>
+      </c>
+      <c r="E8">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>191</v>
+      </c>
+      <c r="B9">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="C9">
+        <v>45.07</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.51</v>
+      </c>
+      <c r="E9">
+        <v>20.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>192</v>
+      </c>
+      <c r="B10">
+        <v>17.98</v>
+      </c>
+      <c r="C10">
+        <v>50.03</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9.06</v>
+      </c>
+      <c r="E10">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>229</v>
+      </c>
+      <c r="B11">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="C11">
+        <v>41.78</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E11">
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>255</v>
+      </c>
+      <c r="B12">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="C12">
+        <v>43.58</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.99</v>
+      </c>
+      <c r="E12">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>256</v>
+      </c>
+      <c r="B13">
+        <v>10.83</v>
+      </c>
+      <c r="C13">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.35</v>
+      </c>
+      <c r="E13">
+        <v>24.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>257</v>
+      </c>
+      <c r="B14">
+        <v>20.3</v>
+      </c>
+      <c r="C14">
+        <v>42.69</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9.08</v>
+      </c>
+      <c r="E14">
+        <v>13.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>319</v>
+      </c>
+      <c r="B15">
+        <v>20.18</v>
+      </c>
+      <c r="C15">
+        <v>37.03</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8.93</v>
+      </c>
+      <c r="E15">
+        <v>25.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>320</v>
+      </c>
+      <c r="B16">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="C16">
+        <v>47.24</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E16">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>321</v>
+      </c>
+      <c r="B17">
+        <v>19.22</v>
+      </c>
+      <c r="C17">
+        <v>41.97</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9.39</v>
+      </c>
+      <c r="E17">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>417</v>
+      </c>
+      <c r="B18">
+        <v>18.61</v>
+      </c>
+      <c r="C18">
+        <v>40.54</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9.51</v>
+      </c>
+      <c r="E18">
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>479</v>
+      </c>
+      <c r="B19">
+        <v>19.14</v>
+      </c>
+      <c r="C19">
+        <v>43.45</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="E19">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>480</v>
+      </c>
+      <c r="B20">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="C20">
+        <v>44.07</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="E20">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>511</v>
+      </c>
+      <c r="B21">
+        <v>18.02</v>
+      </c>
+      <c r="C21">
+        <v>35.18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8.59</v>
+      </c>
+      <c r="E21">
+        <v>28.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>512</v>
+      </c>
+      <c r="B22">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C22">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9.32</v>
+      </c>
+      <c r="E22">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>639</v>
+      </c>
+      <c r="B23">
+        <v>15.78</v>
+      </c>
+      <c r="C23">
+        <v>38.76</v>
+      </c>
+      <c r="D23" s="1">
+        <v>9.51</v>
+      </c>
+      <c r="E23">
+        <v>27.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>640</v>
+      </c>
+      <c r="B24">
+        <v>7.35</v>
+      </c>
+      <c r="C24">
+        <v>44.02</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="E24">
+        <v>28.86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>767</v>
+      </c>
+      <c r="B25">
+        <v>12.9</v>
+      </c>
+      <c r="C25">
+        <v>30.23</v>
+      </c>
+      <c r="D25" s="1">
+        <v>9.56</v>
+      </c>
+      <c r="E25">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>768</v>
+      </c>
+      <c r="B26">
+        <v>7.4</v>
+      </c>
+      <c r="C26">
+        <v>36.4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9.24</v>
+      </c>
+      <c r="E26">
+        <v>29.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>769</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>31.94</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="E27">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>10.16</v>
+      </c>
+      <c r="C38">
+        <v>3.91</v>
+      </c>
+      <c r="D38">
+        <v>8.34</v>
+      </c>
+      <c r="E38">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>64</v>
+      </c>
+      <c r="B39">
+        <v>7.35</v>
+      </c>
+      <c r="C39">
+        <v>35.54</v>
+      </c>
+      <c r="D39">
+        <v>10.06</v>
+      </c>
+      <c r="E39">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>128</v>
+      </c>
+      <c r="B40">
+        <v>10.45</v>
+      </c>
+      <c r="C40">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D40">
+        <v>9.67</v>
+      </c>
+      <c r="E40">
+        <v>31.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>256</v>
+      </c>
+      <c r="B41">
+        <v>10.5</v>
+      </c>
+      <c r="C41">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="D41">
+        <v>10.77</v>
+      </c>
+      <c r="E41">
+        <v>35.090000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>512</v>
+      </c>
+      <c r="B42">
+        <v>10.68</v>
+      </c>
+      <c r="C42">
+        <v>37.15</v>
+      </c>
+      <c r="D42">
+        <v>10.95</v>
+      </c>
+      <c r="E42">
+        <v>33.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>1024</v>
+      </c>
+      <c r="B43">
+        <v>9.27</v>
+      </c>
+      <c r="C43">
+        <v>34.89</v>
+      </c>
+      <c r="D43">
+        <v>10.81</v>
+      </c>
+      <c r="E43">
+        <v>36.08</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>2048</v>
+      </c>
+      <c r="B44">
+        <v>10.86</v>
+      </c>
+      <c r="C44">
+        <v>36.65</v>
+      </c>
+      <c r="D44">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="E44">
+        <v>36.72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>4096</v>
+      </c>
+      <c r="B45">
+        <v>10.43</v>
+      </c>
+      <c r="C45">
+        <v>37.369999999999997</v>
+      </c>
+      <c r="D45">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="E45">
+        <v>36.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:M40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>21.82</v>
+      </c>
+      <c r="C2">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="E2">
+        <v>5.16</v>
+      </c>
+      <c r="F2">
+        <v>5.58</v>
+      </c>
+      <c r="G2">
+        <v>6.01</v>
+      </c>
+      <c r="H2">
+        <v>5.14</v>
+      </c>
+      <c r="I2">
+        <v>1.62</v>
+      </c>
+      <c r="J2">
+        <f>MAX(D2:I2)</f>
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>24.13</v>
+      </c>
+      <c r="C3">
+        <v>48.12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E3">
+        <v>6.25</v>
+      </c>
+      <c r="F3">
+        <v>7.25</v>
+      </c>
+      <c r="G3">
+        <v>7.16</v>
+      </c>
+      <c r="H3">
+        <v>6.62</v>
+      </c>
+      <c r="I3">
+        <v>1.99</v>
+      </c>
+      <c r="J3">
+        <f>MAX(D3:I3)</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>96</v>
+      </c>
+      <c r="B4">
+        <v>18.66</v>
+      </c>
+      <c r="C4">
+        <v>47.83</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="E4">
+        <v>12.37</v>
+      </c>
+      <c r="F4">
+        <v>14.32</v>
+      </c>
+      <c r="G4">
+        <v>14.27</v>
+      </c>
+      <c r="H4">
+        <v>13.47</v>
+      </c>
+      <c r="I4">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="J4">
+        <f>MAX(D4:I4)</f>
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>18.93</v>
+      </c>
+      <c r="C5">
+        <v>45.92</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.21</v>
+      </c>
+      <c r="E5">
+        <v>11.68</v>
+      </c>
+      <c r="F5">
+        <v>10.72</v>
+      </c>
+      <c r="G5">
+        <v>11.48</v>
+      </c>
+      <c r="H5">
+        <v>7.56</v>
+      </c>
+      <c r="I5">
+        <v>7.6</v>
+      </c>
+      <c r="J5">
+        <f>MAX(D5:I5)</f>
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>127</v>
+      </c>
+      <c r="B6">
+        <v>18.5</v>
+      </c>
+      <c r="C6">
+        <v>45.23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.91</v>
+      </c>
+      <c r="E6">
+        <v>12.22</v>
+      </c>
+      <c r="F6">
+        <v>14.84</v>
+      </c>
+      <c r="G6">
+        <v>14.91</v>
+      </c>
+      <c r="H6">
+        <v>15.34</v>
+      </c>
+      <c r="I6">
+        <v>18.93</v>
+      </c>
+      <c r="J6">
+        <f>MAX(D6:I6)</f>
+        <v>18.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>17.16</v>
+      </c>
+      <c r="C7">
+        <v>49.28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E7">
+        <v>13.93</v>
+      </c>
+      <c r="F7">
+        <v>14.53</v>
+      </c>
+      <c r="G7">
+        <v>18.21</v>
+      </c>
+      <c r="H7">
+        <v>17.3</v>
+      </c>
+      <c r="I7">
+        <v>20.28</v>
+      </c>
+      <c r="J7">
+        <f>MAX(D7:I7)</f>
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>129</v>
+      </c>
+      <c r="B8">
+        <v>21.62</v>
+      </c>
+      <c r="C8">
+        <v>41.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.98</v>
+      </c>
+      <c r="E8">
+        <v>12.41</v>
+      </c>
+      <c r="F8">
+        <v>14.6</v>
+      </c>
+      <c r="G8">
+        <v>14.29</v>
+      </c>
+      <c r="H8">
+        <v>10.43</v>
+      </c>
+      <c r="I8">
+        <v>6.9</v>
+      </c>
+      <c r="J8">
+        <f>MAX(D8:I8)</f>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>191</v>
+      </c>
+      <c r="B9">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="C9">
+        <v>45.07</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.51</v>
+      </c>
+      <c r="E9">
+        <v>15.24</v>
+      </c>
+      <c r="F9">
+        <v>13.24</v>
+      </c>
+      <c r="G9">
+        <v>20.75</v>
+      </c>
+      <c r="H9">
+        <v>19.98</v>
+      </c>
+      <c r="I9">
+        <v>20.87</v>
+      </c>
+      <c r="J9">
+        <f>MAX(D9:I9)</f>
+        <v>20.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>192</v>
+      </c>
+      <c r="B10">
+        <v>17.98</v>
+      </c>
+      <c r="C10">
+        <v>50.03</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9.06</v>
+      </c>
+      <c r="E10">
+        <v>15.95</v>
+      </c>
+      <c r="F10">
+        <v>14.78</v>
+      </c>
+      <c r="G10">
+        <v>21.03</v>
+      </c>
+      <c r="H10">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="I10">
+        <v>22.94</v>
+      </c>
+      <c r="J10">
+        <f>MAX(D10:I10)</f>
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>229</v>
+      </c>
+      <c r="B11">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="C11">
+        <v>41.78</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E11">
+        <v>14.93</v>
+      </c>
+      <c r="F11">
+        <v>18.27</v>
+      </c>
+      <c r="G11">
+        <v>17.86</v>
+      </c>
+      <c r="H11">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="I11">
+        <v>19.02</v>
+      </c>
+      <c r="J11">
+        <f>MAX(D11:I11)</f>
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>255</v>
+      </c>
+      <c r="B12">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="C12">
+        <v>43.58</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.99</v>
+      </c>
+      <c r="E12">
+        <v>14.48</v>
+      </c>
+      <c r="F12">
+        <v>18.5</v>
+      </c>
+      <c r="G12">
+        <v>21.22</v>
+      </c>
+      <c r="H12">
+        <v>20.52</v>
+      </c>
+      <c r="I12">
+        <v>20.92</v>
+      </c>
+      <c r="J12">
+        <f>MAX(D12:I12)</f>
+        <v>21.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>256</v>
+      </c>
+      <c r="B13">
+        <v>10.83</v>
+      </c>
+      <c r="C13">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.35</v>
+      </c>
+      <c r="E13">
+        <v>14.82</v>
+      </c>
+      <c r="F13">
+        <v>20.21</v>
+      </c>
+      <c r="G13">
+        <v>22.89</v>
+      </c>
+      <c r="H13">
+        <v>21.14</v>
+      </c>
+      <c r="I13">
+        <v>24.58</v>
+      </c>
+      <c r="J13">
+        <f>MAX(D13:I13)</f>
+        <v>24.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>257</v>
+      </c>
+      <c r="B14">
+        <v>20.3</v>
+      </c>
+      <c r="C14">
+        <v>42.69</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9.08</v>
+      </c>
+      <c r="E14">
+        <v>15.53</v>
+      </c>
+      <c r="F14">
+        <v>18.48</v>
+      </c>
+      <c r="G14">
+        <v>19.37</v>
+      </c>
+      <c r="H14">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="I14">
+        <v>13.67</v>
+      </c>
+      <c r="J14">
+        <f>MAX(D14:I14)</f>
+        <v>19.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>319</v>
+      </c>
+      <c r="B15">
+        <v>20.18</v>
+      </c>
+      <c r="C15">
+        <v>37.03</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8.93</v>
+      </c>
+      <c r="E15">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F15">
+        <v>21.22</v>
+      </c>
+      <c r="G15">
+        <v>23.4</v>
+      </c>
+      <c r="H15">
+        <v>23.56</v>
+      </c>
+      <c r="I15">
+        <v>25.46</v>
+      </c>
+      <c r="J15">
+        <f>MAX(D15:I15)</f>
+        <v>25.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>320</v>
+      </c>
+      <c r="B16">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="C16">
+        <v>47.24</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E16">
+        <v>17.2</v>
+      </c>
+      <c r="F16">
+        <v>20.5</v>
+      </c>
+      <c r="G16">
+        <v>24.7</v>
+      </c>
+      <c r="H16">
+        <v>24.22</v>
+      </c>
+      <c r="I16">
+        <v>27.17</v>
+      </c>
+      <c r="J16">
+        <f>MAX(D16:I16)</f>
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>321</v>
+      </c>
+      <c r="B17">
+        <v>19.22</v>
+      </c>
+      <c r="C17">
+        <v>41.97</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9.39</v>
+      </c>
+      <c r="E17">
+        <v>15.41</v>
+      </c>
+      <c r="F17">
+        <v>19.18</v>
+      </c>
+      <c r="G17">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="H17">
+        <v>15.46</v>
+      </c>
+      <c r="I17">
+        <v>14.31</v>
+      </c>
+      <c r="J17">
+        <f>MAX(D17:I17)</f>
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>417</v>
+      </c>
+      <c r="B18">
+        <v>18.61</v>
+      </c>
+      <c r="C18">
+        <v>40.54</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9.51</v>
+      </c>
+      <c r="E18">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="F18">
+        <v>19.73</v>
+      </c>
+      <c r="G18">
+        <v>21.26</v>
+      </c>
+      <c r="H18">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="I18">
+        <v>22.61</v>
+      </c>
+      <c r="J18">
+        <f>MAX(D18:I18)</f>
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>479</v>
+      </c>
+      <c r="B19">
+        <v>19.14</v>
+      </c>
+      <c r="C19">
+        <v>43.45</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="E19">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="F19">
+        <v>19.22</v>
+      </c>
+      <c r="G19">
+        <v>26.13</v>
+      </c>
+      <c r="H19">
+        <v>25.68</v>
+      </c>
+      <c r="I19">
+        <v>22.42</v>
+      </c>
+      <c r="J19">
+        <f>MAX(D19:I19)</f>
+        <v>26.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>480</v>
+      </c>
+      <c r="B20">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="C20">
+        <v>44.07</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="E20">
+        <v>18.05</v>
+      </c>
+      <c r="F20">
+        <v>23.7</v>
+      </c>
+      <c r="G20">
+        <v>24.49</v>
+      </c>
+      <c r="H20">
+        <v>25.32</v>
+      </c>
+      <c r="I20">
+        <v>22.7</v>
+      </c>
+      <c r="J20">
+        <f>MAX(D20:I20)</f>
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>511</v>
+      </c>
+      <c r="B21">
+        <v>18.02</v>
+      </c>
+      <c r="C21">
+        <v>35.18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8.59</v>
+      </c>
+      <c r="E21">
+        <v>17.54</v>
+      </c>
+      <c r="F21">
+        <v>22.75</v>
+      </c>
+      <c r="G21">
+        <v>24.12</v>
+      </c>
+      <c r="H21">
+        <v>26.37</v>
+      </c>
+      <c r="I21">
+        <v>28.09</v>
+      </c>
+      <c r="J21">
+        <f>MAX(D21:I21)</f>
+        <v>28.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>512</v>
+      </c>
+      <c r="B22">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C22">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9.32</v>
+      </c>
+      <c r="E22">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="F22">
+        <v>23.86</v>
+      </c>
+      <c r="G22">
+        <v>26.7</v>
+      </c>
+      <c r="H22">
+        <v>26.68</v>
+      </c>
+      <c r="I22">
+        <v>27.52</v>
+      </c>
+      <c r="J22">
+        <f>MAX(D22:I22)</f>
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>639</v>
+      </c>
+      <c r="B23">
+        <v>15.78</v>
+      </c>
+      <c r="C23">
+        <v>38.76</v>
+      </c>
+      <c r="D23" s="1">
+        <v>9.51</v>
+      </c>
+      <c r="E23">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="F23">
+        <v>23.22</v>
+      </c>
+      <c r="G23">
+        <v>26.71</v>
+      </c>
+      <c r="H23">
+        <v>26.77</v>
+      </c>
+      <c r="I23">
+        <v>27.23</v>
+      </c>
+      <c r="J23">
+        <f>MAX(D23:I23)</f>
+        <v>27.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>640</v>
+      </c>
+      <c r="B24">
+        <v>7.35</v>
+      </c>
+      <c r="C24">
+        <v>44.02</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="E24">
+        <v>15.82</v>
+      </c>
+      <c r="F24">
+        <v>23.63</v>
+      </c>
+      <c r="G24">
+        <v>26.43</v>
+      </c>
+      <c r="H24">
+        <v>26.48</v>
+      </c>
+      <c r="I24">
+        <v>28.86</v>
+      </c>
+      <c r="J24">
+        <f>MAX(D24:I24)</f>
+        <v>28.86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>767</v>
+      </c>
+      <c r="B25">
+        <v>12.9</v>
+      </c>
+      <c r="C25">
+        <v>30.23</v>
+      </c>
+      <c r="D25" s="1">
+        <v>9.56</v>
+      </c>
+      <c r="E25">
+        <v>15.19</v>
+      </c>
+      <c r="F25">
+        <v>25.48</v>
+      </c>
+      <c r="G25">
+        <v>26.55</v>
+      </c>
+      <c r="H25">
+        <v>25.04</v>
+      </c>
+      <c r="I25">
+        <v>30.99</v>
+      </c>
+      <c r="J25">
+        <f>MAX(D25:I25)</f>
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
+        <v>768</v>
+      </c>
+      <c r="B26">
+        <v>7.4</v>
+      </c>
+      <c r="C26">
+        <v>36.4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9.24</v>
+      </c>
+      <c r="E26">
+        <v>17.41</v>
+      </c>
+      <c r="F26">
+        <v>22.18</v>
+      </c>
+      <c r="G26">
+        <v>26.05</v>
+      </c>
+      <c r="H26">
+        <v>26.54</v>
+      </c>
+      <c r="I26">
+        <v>29.15</v>
+      </c>
+      <c r="J26">
+        <f>MAX(D26:I26)</f>
+        <v>29.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>769</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>31.94</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="E27">
+        <v>17.79</v>
+      </c>
+      <c r="F27">
+        <v>23.61</v>
+      </c>
+      <c r="G27">
+        <v>27.03</v>
+      </c>
+      <c r="H27">
+        <v>24.52</v>
+      </c>
+      <c r="I27">
+        <v>24.1</v>
+      </c>
+      <c r="J27">
+        <f>MAX(D27:I27)</f>
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>10.16</v>
+      </c>
+      <c r="C33">
+        <v>19.64</v>
+      </c>
+      <c r="D33">
+        <v>24.59</v>
+      </c>
+      <c r="E33">
+        <v>29.17</v>
+      </c>
+      <c r="F33">
+        <v>27.56</v>
+      </c>
+      <c r="G33">
+        <v>3.91</v>
+      </c>
+      <c r="H33">
+        <v>8.34</v>
+      </c>
+      <c r="I33">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="J33">
+        <v>25.43</v>
+      </c>
+      <c r="K33">
+        <v>27.05</v>
+      </c>
+      <c r="L33">
+        <v>28.48</v>
+      </c>
+      <c r="M33">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>7.35</v>
+      </c>
+      <c r="C34">
+        <v>20.49</v>
+      </c>
+      <c r="D34">
+        <v>27.14</v>
+      </c>
+      <c r="E34">
+        <v>29.36</v>
+      </c>
+      <c r="F34">
+        <v>29.8</v>
+      </c>
+      <c r="G34">
+        <v>35.54</v>
+      </c>
+      <c r="H34">
+        <v>10.06</v>
+      </c>
+      <c r="I34">
+        <v>16.59</v>
+      </c>
+      <c r="J34">
+        <v>28.9</v>
+      </c>
+      <c r="K34">
+        <v>30.36</v>
+      </c>
+      <c r="L34">
+        <v>29.46</v>
+      </c>
+      <c r="M34">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>128</v>
+      </c>
+      <c r="B35">
+        <v>10.45</v>
+      </c>
+      <c r="C35">
+        <v>20.59</v>
+      </c>
+      <c r="D35">
+        <v>25.62</v>
+      </c>
+      <c r="E35">
+        <v>30.02</v>
+      </c>
+      <c r="F35">
+        <v>30.09</v>
+      </c>
+      <c r="G35">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H35">
+        <v>9.67</v>
+      </c>
+      <c r="I35">
+        <v>18.55</v>
+      </c>
+      <c r="J35">
+        <v>30.48</v>
+      </c>
+      <c r="K35">
+        <v>31.35</v>
+      </c>
+      <c r="L35">
+        <v>32.26</v>
+      </c>
+      <c r="M35">
+        <v>31.37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>256</v>
+      </c>
+      <c r="B36">
+        <v>10.5</v>
+      </c>
+      <c r="C36">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="D36">
+        <v>26.32</v>
+      </c>
+      <c r="E36">
+        <v>30.83</v>
+      </c>
+      <c r="F36">
+        <v>31.03</v>
+      </c>
+      <c r="G36">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="H36">
+        <v>10.77</v>
+      </c>
+      <c r="I36">
+        <v>22.06</v>
+      </c>
+      <c r="J36">
+        <v>29.32</v>
+      </c>
+      <c r="K36">
+        <v>28.26</v>
+      </c>
+      <c r="L36">
+        <v>31.83</v>
+      </c>
+      <c r="M36">
+        <v>35.090000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>512</v>
+      </c>
+      <c r="B37">
+        <v>10.68</v>
+      </c>
+      <c r="C37">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="D37">
+        <v>27.33</v>
+      </c>
+      <c r="E37">
+        <v>28.73</v>
+      </c>
+      <c r="F37">
+        <v>31.03</v>
+      </c>
+      <c r="G37">
+        <v>37.15</v>
+      </c>
+      <c r="H37">
+        <v>10.95</v>
+      </c>
+      <c r="I37">
+        <v>20.62</v>
+      </c>
+      <c r="J37">
+        <v>28.1</v>
+      </c>
+      <c r="K37">
+        <v>27.9</v>
+      </c>
+      <c r="L37">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="M37">
+        <v>33.28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>1024</v>
+      </c>
+      <c r="B38">
+        <v>9.27</v>
+      </c>
+      <c r="C38">
+        <v>19.09</v>
+      </c>
+      <c r="D38">
+        <v>28.49</v>
+      </c>
+      <c r="E38">
+        <v>31.85</v>
+      </c>
+      <c r="F38">
+        <v>33.19</v>
+      </c>
+      <c r="G38">
+        <v>34.89</v>
+      </c>
+      <c r="H38">
+        <v>10.81</v>
+      </c>
+      <c r="I38">
+        <v>21.78</v>
+      </c>
+      <c r="J38">
+        <v>28.8</v>
+      </c>
+      <c r="K38">
+        <v>31.28</v>
+      </c>
+      <c r="L38">
+        <v>30.97</v>
+      </c>
+      <c r="M38">
+        <v>36.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>2048</v>
+      </c>
+      <c r="B39">
+        <v>10.86</v>
+      </c>
+      <c r="C39">
+        <v>19.55</v>
+      </c>
+      <c r="D39">
+        <v>27.5</v>
+      </c>
+      <c r="E39">
+        <v>32.69</v>
+      </c>
+      <c r="F39">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="G39">
+        <v>36.65</v>
+      </c>
+      <c r="H39">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="I39">
+        <v>21.63</v>
+      </c>
+      <c r="J39">
+        <v>29.46</v>
+      </c>
+      <c r="K39">
+        <v>31.4</v>
+      </c>
+      <c r="L39">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="M39">
+        <v>36.72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>4096</v>
+      </c>
+      <c r="B40">
+        <v>10.43</v>
+      </c>
+      <c r="C40">
+        <v>20.05</v>
+      </c>
+      <c r="D40">
+        <v>28.22</v>
+      </c>
+      <c r="E40">
+        <v>31.93</v>
+      </c>
+      <c r="F40">
+        <v>31.42</v>
+      </c>
+      <c r="G40">
+        <v>37.369999999999997</v>
+      </c>
+      <c r="H40">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="I40">
+        <v>19.77</v>
+      </c>
+      <c r="J40">
+        <v>24.9</v>
+      </c>
+      <c r="K40">
+        <v>31.57</v>
+      </c>
+      <c r="L40">
+        <v>32.85</v>
+      </c>
+      <c r="M40">
+        <v>36.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>